--- a/src/server/excel_files/excel.xlsx
+++ b/src/server/excel_files/excel.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hien.phan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanhvu/Projects/teachingaids/src/server/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24960" windowHeight="10665" activeTab="1"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="32000" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Tranh" sheetId="1" r:id="rId1"/>
     <sheet name="Thiết bị" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,18 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="107">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>TÊN TRANH</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lớp </t>
-  </si>
-  <si>
-    <t>Mã KH</t>
   </si>
   <si>
     <t>Đ.vị tính</t>
@@ -306,6 +306,54 @@
   <si>
     <t>Mã 
 KH</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>khCode</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>totalNumber</t>
+  </si>
+  <si>
+    <t>8,9</t>
+  </si>
+  <si>
+    <t>8,10</t>
+  </si>
+  <si>
+    <t>8,11</t>
+  </si>
+  <si>
+    <t>8,12</t>
+  </si>
+  <si>
+    <t>8,13</t>
+  </si>
+  <si>
+    <t>8,14</t>
+  </si>
+  <si>
+    <t>8,15</t>
+  </si>
+  <si>
+    <t>8,16</t>
+  </si>
+  <si>
+    <t>8,17</t>
+  </si>
+  <si>
+    <t>8,18</t>
   </si>
 </sst>
 </file>
@@ -365,53 +413,53 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,804 +784,808 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="37" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="9">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="9">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="9">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="9">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="9">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="9">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="9">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="9">
         <v>9</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="9">
         <v>8</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="9">
         <v>8</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="9">
         <v>7</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F15" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="9">
         <v>8</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F16" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="9">
         <v>9</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F17" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="9">
         <v>8</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F18" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="9">
         <v>7</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F19" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="9">
         <v>7</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="9">
         <v>8</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="9">
         <v>7</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F22" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" s="9">
         <v>8</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F23" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="9">
         <v>9</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F24" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="9">
         <v>8</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F25" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" s="9">
         <v>7</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F26" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27" s="9">
         <v>9</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F27" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="9">
         <v>8</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F28" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" s="9">
         <v>9</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F29" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="9">
         <v>9</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F30" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31" s="9">
         <v>9</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F31" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C32" s="9">
         <v>9</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F32" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33" s="9">
         <v>9</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F33" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C34" s="9">
         <v>7</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35" s="9">
         <v>8</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F35" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F36" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" s="9">
         <v>9</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F37" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C38" s="9">
         <v>9</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F38" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C39" s="9">
         <v>9</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F39" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C40" s="9">
         <v>9</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" s="9">
         <v>1</v>
@@ -1548,61 +1600,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="5" max="6" width="14.5703125" customWidth="1"/>
+    <col min="5" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="37" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="6">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="6">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="F2" s="6">
         <v>8</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/src/server/excel_files/excel.xlsx
+++ b/src/server/excel_files/excel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanhvu/Projects/teachingaids/src/server/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanhvd/Projects/teachingaids/src/server/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="32000" windowHeight="17540"/>
+    <workbookView xWindow="1600" yWindow="460" windowWidth="32000" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Tranh" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
   <si>
     <t>STT</t>
   </si>
@@ -354,13 +354,19 @@
   </si>
   <si>
     <t>8,18</t>
+  </si>
+  <si>
+    <t>madeFrom</t>
+  </si>
+  <si>
+    <t>subject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,6 +400,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -403,7 +415,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -439,35 +451,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -481,19 +469,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -502,6 +478,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,814 +769,903 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="42.83203125" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" style="8" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" style="8"/>
+    <col min="6" max="6" width="14.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="E2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="E3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="E4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="E5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="E6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="E7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="E8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="E9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="E10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="E11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="11">
         <v>9</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="E12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="11">
         <v>8</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="E13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="11">
         <v>8</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="E14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="11">
         <v>7</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="E15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="11">
         <v>8</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="E16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="11">
         <v>9</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="E17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="11">
         <v>8</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="E18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="11">
         <v>7</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="E19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" ht="52" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="11">
         <v>7</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="E20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="11">
         <v>8</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="E21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="11">
         <v>7</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="E22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" ht="52" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="11">
         <v>8</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="E23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="11">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="11">
         <v>9</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="E24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="11">
+        <v>1</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="11">
         <v>8</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="E25" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="11">
+        <v>1</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="11">
         <v>7</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="E26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="11">
+        <v>1</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="11">
         <v>9</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="E27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="11">
         <v>8</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="E28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="11">
         <v>9</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="E29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="11">
         <v>9</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="E30" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="11">
         <v>9</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="E31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1</v>
+      </c>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="11">
         <v>9</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="E32" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1</v>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="11">
         <v>9</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="E33" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="11">
+        <v>1</v>
+      </c>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="11">
         <v>7</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="E34" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="11">
         <v>8</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="E35" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="11">
+        <v>1</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="E36" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="11">
+        <v>1</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="11">
         <v>9</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="F37" s="11">
+        <v>1</v>
+      </c>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="11">
         <v>9</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="F38" s="11">
+        <v>1</v>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="11">
         <v>9</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+      <c r="F39" s="11">
+        <v>1</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="11">
         <v>9</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F40" s="9">
-        <v>1</v>
-      </c>
+      <c r="F40" s="11">
+        <v>1</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1635,25 +1711,25 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="6">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="5">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>8</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>89</v>
       </c>
     </row>

--- a/src/server/excel_files/excel.xlsx
+++ b/src/server/excel_files/excel.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="110">
   <si>
     <t>STT</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>subject</t>
+  </si>
+  <si>
+    <t>category</t>
   </si>
 </sst>
 </file>
@@ -769,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -782,10 +785,12 @@
     <col min="3" max="5" width="8.83203125" style="8"/>
     <col min="6" max="6" width="14.33203125" style="8" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="8"/>
+    <col min="8" max="8" width="8.83203125" style="8"/>
+    <col min="9" max="9" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
@@ -810,8 +815,11 @@
       <c r="H1" s="10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -833,7 +841,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -855,7 +863,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -877,7 +885,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -899,7 +907,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -921,7 +929,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -943,7 +951,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -965,7 +973,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -987,7 +995,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1009,7 +1017,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1031,7 +1039,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1053,7 +1061,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1075,7 +1083,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1097,7 +1105,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1119,7 +1127,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>

--- a/src/server/excel_files/excel.xlsx
+++ b/src/server/excel_files/excel.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,10 +404,27 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="13"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -458,16 +475,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -481,17 +495,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,905 +795,905 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.83203125" style="8" customWidth="1"/>
-    <col min="3" max="5" width="8.83203125" style="8"/>
-    <col min="6" max="6" width="14.33203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="8"/>
-    <col min="9" max="9" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="8"/>
+    <col min="1" max="1" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" style="10" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" style="10"/>
+    <col min="6" max="6" width="14.33203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="10"/>
+    <col min="9" max="9" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="11">
-        <v>1</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="E2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="12">
+        <v>1</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="11">
-        <v>1</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="E3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="E4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="12">
         <v>2</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="E5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="12">
         <v>2</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="E6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="12">
         <v>2</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="E7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="E8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="11">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="E9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="E10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="E11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="12">
         <v>9</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="11">
-        <v>1</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="E12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="12">
         <v>8</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="11">
-        <v>1</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="E13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="12">
         <v>8</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="11">
-        <v>1</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="E14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="12">
         <v>7</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="11">
-        <v>1</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="E15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="12">
         <v>8</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="11">
-        <v>1</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="E16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="12">
         <v>9</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="11">
-        <v>1</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="E17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="12">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="12">
         <v>8</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="11">
-        <v>1</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="E18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="12">
         <v>7</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="11">
-        <v>1</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" ht="52" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="E19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="12">
         <v>7</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="11">
-        <v>1</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="E20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="12">
+        <v>1</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="12">
         <v>8</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="11">
-        <v>1</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="E21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="12">
+        <v>1</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="12">
         <v>7</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="11">
-        <v>1</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" ht="52" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="E22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="12">
+        <v>1</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="12">
         <v>8</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="11">
-        <v>1</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="E23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="12">
+        <v>1</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="12">
         <v>9</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="11">
-        <v>1</v>
-      </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="E24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="12">
+        <v>1</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="12">
         <v>8</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="11">
-        <v>1</v>
-      </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="E25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="12">
+        <v>1</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="12">
         <v>7</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="11">
-        <v>1</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="E26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="12">
+        <v>1</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="12">
         <v>9</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="11">
-        <v>1</v>
-      </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="E27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="12">
+        <v>1</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="12">
         <v>8</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="11">
-        <v>1</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="E28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="12">
+        <v>1</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="12">
         <v>9</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="11">
-        <v>1</v>
-      </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="E29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="12">
+        <v>1</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="12">
         <v>9</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="11">
-        <v>1</v>
-      </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="E30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="12">
+        <v>1</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="12">
         <v>9</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="11">
-        <v>1</v>
-      </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="E31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="12">
+        <v>1</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="12">
         <v>9</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="11">
-        <v>1</v>
-      </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="E32" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="12">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="12">
         <v>9</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="11">
-        <v>1</v>
-      </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="E33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="12">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="12">
         <v>7</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="11">
-        <v>1</v>
-      </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-    </row>
-    <row r="35" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="E34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="12">
+        <v>1</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="12">
         <v>8</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="11">
-        <v>1</v>
-      </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="E35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="12">
+        <v>1</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11" t="s">
+      <c r="C36" s="12"/>
+      <c r="D36" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="11">
-        <v>1</v>
-      </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-    </row>
-    <row r="37" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="E36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="12">
+        <v>1</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="12">
         <v>9</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="11">
-        <v>1</v>
-      </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+      <c r="F37" s="12">
+        <v>1</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="12">
         <v>9</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="11">
-        <v>1</v>
-      </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-    </row>
-    <row r="39" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="F38" s="12">
+        <v>1</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="12">
         <v>9</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="11">
-        <v>1</v>
-      </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-    </row>
-    <row r="40" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="F39" s="12">
+        <v>1</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="12">
         <v>9</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F40" s="11">
-        <v>1</v>
-      </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+      <c r="F40" s="12">
+        <v>1</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1719,25 +1739,25 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="5">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>89</v>
       </c>
     </row>

--- a/src/server/excel_files/excel.xlsx
+++ b/src/server/excel_files/excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="500" yWindow="460" windowWidth="37900" windowHeight="21140"/>
+    <workbookView xWindow="500" yWindow="460" windowWidth="37900" windowHeight="21140" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Tranh-Lịch sử" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="898">
   <si>
     <t>Phong trào giải phóng dân tộc của nhân dân châu A, châu Phi, Mĩ La Tinh</t>
   </si>
@@ -5102,21 +5102,6 @@
     <t>Đôi</t>
   </si>
   <si>
-    <t>5a717d49b379a92e18eab473</t>
-  </si>
-  <si>
-    <t>5a717d51b379a92e18eab474</t>
-  </si>
-  <si>
-    <t>5a717d29b379a92e18eab470</t>
-  </si>
-  <si>
-    <t>5a717d00b379a92e18eab46e</t>
-  </si>
-  <si>
-    <t>5a717d07b379a92e18eab46f</t>
-  </si>
-  <si>
     <t>Tranh</t>
   </si>
   <si>
@@ -5169,13 +5154,31 @@
   </si>
   <si>
     <t>LS 045</t>
+  </si>
+  <si>
+    <t>Lịch sử</t>
+  </si>
+  <si>
+    <t>Địa lý</t>
+  </si>
+  <si>
+    <t>Sinh học</t>
+  </si>
+  <si>
+    <t>Vật lý</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoá </t>
+  </si>
+  <si>
+    <t>Hoá</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5235,6 +5238,29 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5326,10 +5352,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5436,8 +5478,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="17">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5718,8 +5777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40:I46"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5782,10 +5841,10 @@
       <c r="F2"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I2" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -5809,10 +5868,10 @@
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I3" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -5836,10 +5895,10 @@
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I4" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -5863,10 +5922,10 @@
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I5" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -5890,10 +5949,10 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I6" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -5901,7 +5960,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="C7" s="37">
         <v>9</v>
@@ -5917,10 +5976,10 @@
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I7" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -5944,10 +6003,10 @@
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I8" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -5969,10 +6028,10 @@
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I9" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -5996,10 +6055,10 @@
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I10" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6023,10 +6082,10 @@
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I11" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6050,10 +6109,10 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I12" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6077,10 +6136,10 @@
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I13" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6104,10 +6163,10 @@
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I14" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6131,10 +6190,10 @@
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I15" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6158,10 +6217,10 @@
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I16" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6185,10 +6244,10 @@
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I17" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6212,10 +6271,10 @@
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I18" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6239,10 +6298,10 @@
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I19" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6266,10 +6325,10 @@
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I20" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6293,10 +6352,10 @@
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I21" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I21" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6320,10 +6379,10 @@
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I22" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6347,10 +6406,10 @@
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I23" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I23" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6374,10 +6433,10 @@
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I24" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6401,10 +6460,10 @@
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I25" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I25" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6428,10 +6487,10 @@
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I26" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I26" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6455,10 +6514,10 @@
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I27" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I27" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6466,7 +6525,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="C28" s="37">
         <v>8</v>
@@ -6482,10 +6541,10 @@
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I28" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I28" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6509,10 +6568,10 @@
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I29" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I29" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6536,10 +6595,10 @@
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I30" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I30" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6563,10 +6622,10 @@
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I31" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I31" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6590,10 +6649,10 @@
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I32" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I32" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6617,10 +6676,10 @@
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I33" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I33" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6644,10 +6703,10 @@
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I34" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I34" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6655,7 +6714,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="C35" s="37">
         <v>8</v>
@@ -6671,10 +6730,10 @@
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I35" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I35" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6696,10 +6755,10 @@
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I36" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I36" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6723,10 +6782,10 @@
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I37" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I37" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6750,10 +6809,10 @@
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I38" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I38" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6777,10 +6836,10 @@
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I39" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I39" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6804,10 +6863,10 @@
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I40" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I40" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6815,13 +6874,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="C41" s="37">
         <v>9</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="E41" s="37" t="s">
         <v>70</v>
@@ -6830,10 +6889,10 @@
         <v>1</v>
       </c>
       <c r="H41" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I41" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I41" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6841,13 +6900,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="C42" s="37">
         <v>8</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="E42" s="37" t="s">
         <v>70</v>
@@ -6856,10 +6915,10 @@
         <v>1</v>
       </c>
       <c r="H42" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I42" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I42" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6867,13 +6926,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="C43" s="37">
         <v>8</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="E43" s="37" t="s">
         <v>70</v>
@@ -6882,10 +6941,10 @@
         <v>1</v>
       </c>
       <c r="H43" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I43" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I43" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6893,13 +6952,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="C44" s="37">
         <v>8</v>
       </c>
       <c r="D44" s="37" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="E44" s="37" t="s">
         <v>70</v>
@@ -6908,10 +6967,10 @@
         <v>1</v>
       </c>
       <c r="H44" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I44" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I44" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6919,13 +6978,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="C45" s="37">
         <v>9</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="E45" s="37" t="s">
         <v>70</v>
@@ -6934,10 +6993,10 @@
         <v>1</v>
       </c>
       <c r="H45" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I45" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I45" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6951,7 +7010,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="E46" s="37" t="s">
         <v>70</v>
@@ -6960,10 +7019,10 @@
         <v>1</v>
       </c>
       <c r="H46" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I46" s="35" t="s">
         <v>874</v>
-      </c>
-      <c r="I46" s="35" t="s">
-        <v>879</v>
       </c>
     </row>
   </sheetData>
@@ -6976,7 +7035,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I11"/>
+      <selection activeCell="H2" sqref="H2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7035,10 +7094,10 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="I2" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.25">
@@ -7061,10 +7120,10 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="I3" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="37" thickBot="1" x14ac:dyDescent="0.25">
@@ -7087,10 +7146,10 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="I4" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="37" thickBot="1" x14ac:dyDescent="0.25">
@@ -7113,10 +7172,10 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="I5" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.25">
@@ -7139,10 +7198,10 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="I6" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="37" thickBot="1" x14ac:dyDescent="0.25">
@@ -7165,10 +7224,10 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="I7" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="37" thickBot="1" x14ac:dyDescent="0.25">
@@ -7191,10 +7250,10 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="I8" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="37" thickBot="1" x14ac:dyDescent="0.25">
@@ -7217,10 +7276,10 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="I9" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.25">
@@ -7243,10 +7302,10 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="I10" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="37" thickBot="1" x14ac:dyDescent="0.25">
@@ -7269,10 +7328,10 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="I11" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -7285,7 +7344,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I42"/>
+      <selection activeCell="H2" sqref="H2:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7344,10 +7403,10 @@
         <v>2</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7370,10 +7429,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7396,10 +7455,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7422,10 +7481,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7448,10 +7507,10 @@
         <v>2</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7474,10 +7533,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7500,10 +7559,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7526,10 +7585,10 @@
         <v>2</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7552,10 +7611,10 @@
         <v>1</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7578,10 +7637,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7604,10 +7663,10 @@
         <v>1</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7630,10 +7689,10 @@
         <v>2</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7656,10 +7715,10 @@
         <v>3</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7682,10 +7741,10 @@
         <v>1</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7708,10 +7767,10 @@
         <v>1</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7734,10 +7793,10 @@
         <v>1</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7760,10 +7819,10 @@
         <v>1</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7786,10 +7845,10 @@
         <v>1</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7812,10 +7871,10 @@
         <v>1</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7838,10 +7897,10 @@
         <v>1</v>
       </c>
       <c r="H21" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7864,10 +7923,10 @@
         <v>2</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7890,10 +7949,10 @@
         <v>1</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7916,10 +7975,10 @@
         <v>1</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7942,10 +8001,10 @@
         <v>1</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I25" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7968,10 +8027,10 @@
         <v>1</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7994,10 +8053,10 @@
         <v>1</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I27" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8020,10 +8079,10 @@
         <v>1</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I28" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8046,10 +8105,10 @@
         <v>1</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8072,10 +8131,10 @@
         <v>1</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8098,10 +8157,10 @@
         <v>1</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8124,10 +8183,10 @@
         <v>1</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I32" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8150,10 +8209,10 @@
         <v>2</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I33" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8176,10 +8235,10 @@
         <v>1</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I34" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8202,10 +8261,10 @@
         <v>1</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I35" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8228,10 +8287,10 @@
         <v>1</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8254,10 +8313,10 @@
         <v>828</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I37" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8280,10 +8339,10 @@
         <v>2</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I38" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8306,10 +8365,10 @@
         <v>829</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I39" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8332,10 +8391,10 @@
         <v>828</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I40" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8358,10 +8417,10 @@
         <v>1</v>
       </c>
       <c r="H41" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I41" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8384,10 +8443,10 @@
         <v>828</v>
       </c>
       <c r="H42" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I42" s="34" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
   </sheetData>
@@ -8399,8 +8458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8459,10 +8518,10 @@
         <v>10</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -8485,10 +8544,10 @@
         <v>4</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8511,10 +8570,10 @@
         <v>4</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8537,10 +8596,10 @@
         <v>4</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8563,10 +8622,10 @@
         <v>10</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8589,10 +8648,10 @@
         <v>2</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8615,10 +8674,10 @@
         <v>10</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8641,10 +8700,10 @@
         <v>10</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8667,10 +8726,10 @@
         <v>20</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8693,10 +8752,10 @@
         <v>20</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8719,10 +8778,10 @@
         <v>10</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8745,10 +8804,10 @@
         <v>4</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8771,10 +8830,10 @@
         <v>10</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8797,10 +8856,10 @@
         <v>10</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8823,10 +8882,10 @@
         <v>10</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8849,10 +8908,10 @@
         <v>7</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8875,10 +8934,10 @@
         <v>10</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8901,10 +8960,10 @@
         <v>10</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8927,10 +8986,10 @@
         <v>10</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8953,10 +9012,10 @@
         <v>10</v>
       </c>
       <c r="H21" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -8979,10 +9038,10 @@
         <v>10</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9005,10 +9064,10 @@
         <v>5</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9031,10 +9090,10 @@
         <v>5</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9057,10 +9116,10 @@
         <v>10</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I25" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9083,10 +9142,10 @@
         <v>10</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9109,10 +9168,10 @@
         <v>15</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I27" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9135,10 +9194,10 @@
         <v>8</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I28" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9161,10 +9220,10 @@
         <v>20</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9187,10 +9246,10 @@
         <v>2</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9213,10 +9272,10 @@
         <v>6</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9239,10 +9298,10 @@
         <v>10</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I32" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9265,10 +9324,10 @@
         <v>10</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I33" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9291,10 +9350,10 @@
         <v>20</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I34" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9317,10 +9376,10 @@
         <v>10</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I35" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9343,10 +9402,10 @@
         <v>12</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9369,10 +9428,10 @@
         <v>8</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I37" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9395,10 +9454,10 @@
         <v>10</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I38" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
@@ -9421,10 +9480,10 @@
         <v>5</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="I39" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -9437,7 +9496,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9496,11 +9555,11 @@
       <c r="F2" s="2">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
-        <v>874</v>
+      <c r="H2" s="38" t="s">
+        <v>892</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -9513,7 +9572,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I39"/>
+      <selection activeCell="H2" sqref="H2:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9571,10 +9630,10 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I2" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9597,10 +9656,10 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I3" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9623,10 +9682,10 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I4" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9649,10 +9708,10 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I5" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9675,10 +9734,10 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I6" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9701,10 +9760,10 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I7" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9727,10 +9786,10 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I8" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9753,10 +9812,10 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I9" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9779,10 +9838,10 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I10" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9805,10 +9864,10 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I11" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9831,10 +9890,10 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I12" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9857,10 +9916,10 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I13" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9883,10 +9942,10 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I14" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9909,10 +9968,10 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I15" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9935,10 +9994,10 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I16" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9961,10 +10020,10 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I17" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9987,10 +10046,10 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I18" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10013,10 +10072,10 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I19" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10039,10 +10098,10 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I20" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10065,10 +10124,10 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I21" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10091,10 +10150,10 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I22" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10117,10 +10176,10 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I23" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10143,10 +10202,10 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I24" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10169,10 +10228,10 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I25" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10195,10 +10254,10 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I26" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10221,10 +10280,10 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I27" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10247,10 +10306,10 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I28" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10273,10 +10332,10 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I29" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10299,10 +10358,10 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I30" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10325,10 +10384,10 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I31" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10351,10 +10410,10 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I32" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10377,10 +10436,10 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I33" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10403,10 +10462,10 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I34" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10429,10 +10488,10 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I35" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10455,10 +10514,10 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10481,10 +10540,10 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I37" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10507,10 +10566,10 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I38" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10533,10 +10592,10 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I39" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -10549,7 +10608,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I4"/>
+      <selection activeCell="H2" sqref="H2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10607,10 +10666,10 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I2" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10633,10 +10692,10 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I3" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10659,10 +10718,10 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I4" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -10674,8 +10733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I50"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10732,10 +10791,10 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
+        <v>894</v>
+      </c>
+      <c r="I2" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10756,10 +10815,10 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
+        <v>894</v>
+      </c>
+      <c r="I3" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10780,10 +10839,10 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
+        <v>894</v>
+      </c>
+      <c r="I4" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10804,10 +10863,10 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
+        <v>894</v>
+      </c>
+      <c r="I5" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10828,10 +10887,10 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
+        <v>894</v>
+      </c>
+      <c r="I6" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10852,10 +10911,10 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
+        <v>894</v>
+      </c>
+      <c r="I7" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10876,10 +10935,10 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
+        <v>894</v>
+      </c>
+      <c r="I8" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10900,10 +10959,10 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
+        <v>894</v>
+      </c>
+      <c r="I9" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10924,10 +10983,10 @@
         <v>10</v>
       </c>
       <c r="H10" t="s">
+        <v>894</v>
+      </c>
+      <c r="I10" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10948,10 +11007,10 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
+        <v>894</v>
+      </c>
+      <c r="I11" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10972,10 +11031,10 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
+        <v>894</v>
+      </c>
+      <c r="I12" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -10996,10 +11055,10 @@
         <v>4</v>
       </c>
       <c r="H13" t="s">
+        <v>894</v>
+      </c>
+      <c r="I13" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I13" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11020,10 +11079,10 @@
         <v>6</v>
       </c>
       <c r="H14" t="s">
+        <v>894</v>
+      </c>
+      <c r="I14" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11044,10 +11103,10 @@
         <v>4</v>
       </c>
       <c r="H15" t="s">
+        <v>894</v>
+      </c>
+      <c r="I15" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11068,10 +11127,10 @@
         <v>4</v>
       </c>
       <c r="H16" t="s">
+        <v>894</v>
+      </c>
+      <c r="I16" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I16" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11092,10 +11151,10 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
+        <v>894</v>
+      </c>
+      <c r="I17" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11116,10 +11175,10 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
+        <v>894</v>
+      </c>
+      <c r="I18" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I18" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11140,10 +11199,10 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
+        <v>894</v>
+      </c>
+      <c r="I19" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I19" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11164,10 +11223,10 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
+        <v>894</v>
+      </c>
+      <c r="I20" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11188,10 +11247,10 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
+        <v>894</v>
+      </c>
+      <c r="I21" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I21" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11212,10 +11271,10 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
+        <v>894</v>
+      </c>
+      <c r="I22" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I22" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11236,10 +11295,10 @@
         <v>2</v>
       </c>
       <c r="H23" t="s">
+        <v>894</v>
+      </c>
+      <c r="I23" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I23" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11260,10 +11319,10 @@
         <v>2</v>
       </c>
       <c r="H24" t="s">
+        <v>894</v>
+      </c>
+      <c r="I24" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I24" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11284,10 +11343,10 @@
         <v>2</v>
       </c>
       <c r="H25" t="s">
+        <v>894</v>
+      </c>
+      <c r="I25" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I25" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11308,10 +11367,10 @@
         <v>2</v>
       </c>
       <c r="H26" t="s">
+        <v>894</v>
+      </c>
+      <c r="I26" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I26" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11332,10 +11391,10 @@
         <v>2</v>
       </c>
       <c r="H27" t="s">
+        <v>894</v>
+      </c>
+      <c r="I27" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I27" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11356,10 +11415,10 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
+        <v>894</v>
+      </c>
+      <c r="I28" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I28" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11380,10 +11439,10 @@
         <v>3</v>
       </c>
       <c r="H29" t="s">
+        <v>894</v>
+      </c>
+      <c r="I29" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11404,10 +11463,10 @@
         <v>6</v>
       </c>
       <c r="H30" t="s">
+        <v>894</v>
+      </c>
+      <c r="I30" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I30" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11428,10 +11487,10 @@
         <v>8</v>
       </c>
       <c r="H31" t="s">
+        <v>894</v>
+      </c>
+      <c r="I31" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I31" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11452,10 +11511,10 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
+        <v>894</v>
+      </c>
+      <c r="I32" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I32" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11476,10 +11535,10 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
+        <v>894</v>
+      </c>
+      <c r="I33" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I33" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11500,10 +11559,10 @@
         <v>2</v>
       </c>
       <c r="H34" t="s">
+        <v>894</v>
+      </c>
+      <c r="I34" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I34" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11524,10 +11583,10 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
+        <v>894</v>
+      </c>
+      <c r="I35" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I35" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11548,10 +11607,10 @@
         <v>2</v>
       </c>
       <c r="H36" t="s">
+        <v>894</v>
+      </c>
+      <c r="I36" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I36" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11572,10 +11631,10 @@
         <v>2</v>
       </c>
       <c r="H37" t="s">
+        <v>894</v>
+      </c>
+      <c r="I37" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I37" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11596,10 +11655,10 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
+        <v>894</v>
+      </c>
+      <c r="I38" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I38" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11620,10 +11679,10 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
+        <v>894</v>
+      </c>
+      <c r="I39" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I39" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11644,10 +11703,10 @@
         <v>2</v>
       </c>
       <c r="H40" t="s">
+        <v>894</v>
+      </c>
+      <c r="I40" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I40" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11668,10 +11727,10 @@
         <v>2</v>
       </c>
       <c r="H41" t="s">
+        <v>894</v>
+      </c>
+      <c r="I41" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I41" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11692,10 +11751,10 @@
         <v>2</v>
       </c>
       <c r="H42" t="s">
+        <v>894</v>
+      </c>
+      <c r="I42" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I42" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11716,10 +11775,10 @@
         <v>2</v>
       </c>
       <c r="H43" t="s">
+        <v>894</v>
+      </c>
+      <c r="I43" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I43" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11740,10 +11799,10 @@
         <v>2</v>
       </c>
       <c r="H44" t="s">
+        <v>894</v>
+      </c>
+      <c r="I44" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I44" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11764,10 +11823,10 @@
         <v>4</v>
       </c>
       <c r="H45" t="s">
+        <v>894</v>
+      </c>
+      <c r="I45" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I45" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11788,10 +11847,10 @@
         <v>6</v>
       </c>
       <c r="H46" t="s">
+        <v>894</v>
+      </c>
+      <c r="I46" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I46" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11812,10 +11871,10 @@
         <v>20</v>
       </c>
       <c r="H47" t="s">
+        <v>894</v>
+      </c>
+      <c r="I47" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I47" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11836,10 +11895,10 @@
         <v>10</v>
       </c>
       <c r="H48" t="s">
+        <v>894</v>
+      </c>
+      <c r="I48" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I48" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11860,10 +11919,10 @@
         <v>10</v>
       </c>
       <c r="H49" t="s">
+        <v>894</v>
+      </c>
+      <c r="I49" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I49" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11884,10 +11943,10 @@
         <v>6</v>
       </c>
       <c r="H50" t="s">
+        <v>894</v>
+      </c>
+      <c r="I50" s="36" t="s">
         <v>876</v>
-      </c>
-      <c r="I50" s="36" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -11911,8 +11970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I89"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11970,10 +12029,10 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -11996,10 +12055,10 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12022,10 +12081,10 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12048,10 +12107,10 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12074,10 +12133,10 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12100,10 +12159,10 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12126,10 +12185,10 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12152,10 +12211,10 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12178,10 +12237,10 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12204,10 +12263,10 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12230,10 +12289,10 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
@@ -12256,10 +12315,10 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12276,10 +12335,10 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="H14" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12302,10 +12361,10 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -12328,10 +12387,10 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -12354,10 +12413,10 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12380,10 +12439,10 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12406,10 +12465,10 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12432,10 +12491,10 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12456,10 +12515,10 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12482,10 +12541,10 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12508,10 +12567,10 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12534,10 +12593,10 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12560,10 +12619,10 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12586,10 +12645,10 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12612,10 +12671,10 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12638,10 +12697,10 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -12664,10 +12723,10 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I29" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12690,10 +12749,10 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12716,10 +12775,10 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12742,10 +12801,10 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12768,10 +12827,10 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12794,10 +12853,10 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12820,10 +12879,10 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -12846,10 +12905,10 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12872,10 +12931,10 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12898,10 +12957,10 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12924,10 +12983,10 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I39" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12948,10 +13007,10 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I40" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -12974,10 +13033,10 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I41" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13000,10 +13059,10 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13026,10 +13085,10 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13052,10 +13111,10 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I44" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13078,10 +13137,10 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I45" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13104,10 +13163,10 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I46" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13130,10 +13189,10 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -13156,10 +13215,10 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I48" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13182,10 +13241,10 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13208,10 +13267,10 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13234,10 +13293,10 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13260,10 +13319,10 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I52" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13286,10 +13345,10 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I53" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13312,10 +13371,10 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I54" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13338,10 +13397,10 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I55" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13364,10 +13423,10 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I56" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13390,10 +13449,10 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I57" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13416,10 +13475,10 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I58" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13442,10 +13501,10 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I59" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13468,10 +13527,10 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I60" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13494,10 +13553,10 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I61" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13520,10 +13579,10 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I62" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13546,10 +13605,10 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I63" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13572,10 +13631,10 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I64" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13598,10 +13657,10 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I65" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13624,10 +13683,10 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I66" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13650,10 +13709,10 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I67" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -13676,10 +13735,10 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I68" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13702,10 +13761,10 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I69" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13728,10 +13787,10 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I70" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13754,10 +13813,10 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I71" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13780,10 +13839,10 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I72" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13806,10 +13865,10 @@
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I73" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13832,10 +13891,10 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I74" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13858,10 +13917,10 @@
         <v>2</v>
       </c>
       <c r="H75" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I75" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13884,10 +13943,10 @@
         <v>2</v>
       </c>
       <c r="H76" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I76" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13910,10 +13969,10 @@
         <v>2</v>
       </c>
       <c r="H77" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I77" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13936,10 +13995,10 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I78" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13962,10 +14021,10 @@
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I79" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -13988,10 +14047,10 @@
         <v>2</v>
       </c>
       <c r="H80" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I80" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14014,10 +14073,10 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I81" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14040,10 +14099,10 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I82" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14066,10 +14125,10 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I83" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14092,10 +14151,10 @@
         <v>2</v>
       </c>
       <c r="H84" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I84" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14118,10 +14177,10 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I85" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14144,10 +14203,10 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I86" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14170,10 +14229,10 @@
         <v>2</v>
       </c>
       <c r="H87" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I87" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14196,10 +14255,10 @@
         <v>2</v>
       </c>
       <c r="H88" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I88" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14222,10 +14281,10 @@
         <v>2</v>
       </c>
       <c r="H89" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I89" s="36" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -14238,7 +14297,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I33"/>
+      <selection activeCell="H2" sqref="H2:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14301,10 +14360,10 @@
         <v>78</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14330,10 +14389,10 @@
         <v>78</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14359,10 +14418,10 @@
         <v>78</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14388,10 +14447,10 @@
         <v>78</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14417,10 +14476,10 @@
         <v>78</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14446,10 +14505,10 @@
         <v>78</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14475,10 +14534,10 @@
         <v>78</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14504,10 +14563,10 @@
         <v>78</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14533,10 +14592,10 @@
         <v>78</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14562,10 +14621,10 @@
         <v>78</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14591,10 +14650,10 @@
         <v>78</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14620,10 +14679,10 @@
         <v>78</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14649,10 +14708,10 @@
         <v>78</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14678,10 +14737,10 @@
         <v>78</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14707,10 +14766,10 @@
         <v>78</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14736,10 +14795,10 @@
         <v>78</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14765,10 +14824,10 @@
         <v>78</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14794,10 +14853,10 @@
         <v>78</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14823,10 +14882,10 @@
         <v>78</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14852,10 +14911,10 @@
         <v>78</v>
       </c>
       <c r="H21" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14881,10 +14940,10 @@
         <v>78</v>
       </c>
       <c r="H22" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14910,10 +14969,10 @@
         <v>78</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14939,10 +14998,10 @@
         <v>78</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I24" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14968,10 +15027,10 @@
         <v>78</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -14997,10 +15056,10 @@
         <v>78</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I26" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15026,10 +15085,10 @@
         <v>78</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15055,10 +15114,10 @@
         <v>78</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I28" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15084,10 +15143,10 @@
         <v>78</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15113,10 +15172,10 @@
         <v>78</v>
       </c>
       <c r="H30" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15142,10 +15201,10 @@
         <v>78</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -15169,10 +15228,10 @@
         <v>78</v>
       </c>
       <c r="H32" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15196,10 +15255,10 @@
         <v>78</v>
       </c>
       <c r="H33" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -15212,8 +15271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I59"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15275,10 +15334,10 @@
         <v>78</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15304,10 +15363,10 @@
         <v>78</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15333,10 +15392,10 @@
         <v>78</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15362,10 +15421,10 @@
         <v>78</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15391,10 +15450,10 @@
         <v>78</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15420,10 +15479,10 @@
         <v>78</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15449,10 +15508,10 @@
         <v>78</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15478,10 +15537,10 @@
         <v>78</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15507,10 +15566,10 @@
         <v>78</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15536,10 +15595,10 @@
         <v>78</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15565,10 +15624,10 @@
         <v>78</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15594,10 +15653,10 @@
         <v>78</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15623,10 +15682,10 @@
         <v>78</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15652,10 +15711,10 @@
         <v>78</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15681,10 +15740,10 @@
         <v>78</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15710,10 +15769,10 @@
         <v>78</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15739,10 +15798,10 @@
         <v>78</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15768,10 +15827,10 @@
         <v>78</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15797,10 +15856,10 @@
         <v>78</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15824,10 +15883,10 @@
         <v>78</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15851,10 +15910,10 @@
         <v>78</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
@@ -15880,10 +15939,10 @@
         <v>78</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -15909,10 +15968,10 @@
         <v>78</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I24" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15938,10 +15997,10 @@
         <v>78</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I25" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15967,10 +16026,10 @@
         <v>78</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I26" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -15996,10 +16055,10 @@
         <v>78</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16025,10 +16084,10 @@
         <v>78</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16054,10 +16113,10 @@
         <v>78</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I29" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16083,10 +16142,10 @@
         <v>78</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16112,10 +16171,10 @@
         <v>78</v>
       </c>
       <c r="H31" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I31" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -16141,10 +16200,10 @@
         <v>78</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I32" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16170,10 +16229,10 @@
         <v>78</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16199,10 +16258,10 @@
         <v>78</v>
       </c>
       <c r="H34" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I34" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16228,10 +16287,10 @@
         <v>78</v>
       </c>
       <c r="H35" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I35" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16257,10 +16316,10 @@
         <v>78</v>
       </c>
       <c r="H36" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I36" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16286,10 +16345,10 @@
         <v>78</v>
       </c>
       <c r="H37" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I37" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16315,10 +16374,10 @@
         <v>78</v>
       </c>
       <c r="H38" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I38" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16344,10 +16403,10 @@
         <v>78</v>
       </c>
       <c r="H39" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I39" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16373,10 +16432,10 @@
         <v>78</v>
       </c>
       <c r="H40" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I40" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16402,10 +16461,10 @@
         <v>78</v>
       </c>
       <c r="H41" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I41" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16431,10 +16490,10 @@
         <v>78</v>
       </c>
       <c r="H42" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I42" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16460,10 +16519,10 @@
         <v>78</v>
       </c>
       <c r="H43" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I43" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16489,10 +16548,10 @@
         <v>78</v>
       </c>
       <c r="H44" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I44" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -16518,10 +16577,10 @@
         <v>78</v>
       </c>
       <c r="H45" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I45" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -16547,10 +16606,10 @@
         <v>78</v>
       </c>
       <c r="H46" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I46" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -16576,10 +16635,10 @@
         <v>78</v>
       </c>
       <c r="H47" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I47" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16605,10 +16664,10 @@
         <v>78</v>
       </c>
       <c r="H48" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I48" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16634,10 +16693,10 @@
         <v>78</v>
       </c>
       <c r="H49" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I49" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16663,10 +16722,10 @@
         <v>78</v>
       </c>
       <c r="H50" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I50" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -16692,10 +16751,10 @@
         <v>78</v>
       </c>
       <c r="H51" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I51" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16721,10 +16780,10 @@
         <v>78</v>
       </c>
       <c r="H52" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I52" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16750,10 +16809,10 @@
         <v>78</v>
       </c>
       <c r="H53" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I53" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16779,10 +16838,10 @@
         <v>78</v>
       </c>
       <c r="H54" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I54" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16808,10 +16867,10 @@
         <v>78</v>
       </c>
       <c r="H55" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I55" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16837,10 +16896,10 @@
         <v>78</v>
       </c>
       <c r="H56" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I56" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16866,10 +16925,10 @@
         <v>78</v>
       </c>
       <c r="H57" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I57" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16893,10 +16952,10 @@
       </c>
       <c r="G58" s="23"/>
       <c r="H58" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I58" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -16920,10 +16979,10 @@
       </c>
       <c r="G59" s="23"/>
       <c r="H59" s="33" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I59" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -16936,7 +16995,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I68"/>
+      <selection activeCell="H2" sqref="H2:H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16998,10 +17057,10 @@
         <v>78</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17027,10 +17086,10 @@
         <v>78</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17056,10 +17115,10 @@
         <v>78</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17085,10 +17144,10 @@
         <v>78</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17114,10 +17173,10 @@
         <v>78</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17143,10 +17202,10 @@
         <v>78</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17172,10 +17231,10 @@
         <v>78</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17201,10 +17260,10 @@
         <v>78</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17230,10 +17289,10 @@
         <v>78</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17259,10 +17318,10 @@
         <v>78</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17288,10 +17347,10 @@
         <v>78</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17317,10 +17376,10 @@
         <v>78</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17346,10 +17405,10 @@
         <v>78</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17375,10 +17434,10 @@
         <v>78</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -17404,10 +17463,10 @@
         <v>78</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17433,10 +17492,10 @@
         <v>78</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17462,10 +17521,10 @@
         <v>78</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17491,10 +17550,10 @@
         <v>78</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17520,10 +17579,10 @@
         <v>78</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17549,10 +17608,10 @@
         <v>78</v>
       </c>
       <c r="H21" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17578,10 +17637,10 @@
         <v>78</v>
       </c>
       <c r="H22" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17607,10 +17666,10 @@
         <v>78</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17636,10 +17695,10 @@
         <v>78</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I24" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17665,10 +17724,10 @@
         <v>78</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17694,10 +17753,10 @@
         <v>78</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I26" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17723,10 +17782,10 @@
         <v>78</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17752,10 +17811,10 @@
         <v>78</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I28" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17781,10 +17840,10 @@
         <v>78</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17810,10 +17869,10 @@
         <v>78</v>
       </c>
       <c r="H30" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17839,10 +17898,10 @@
         <v>78</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17868,10 +17927,10 @@
         <v>78</v>
       </c>
       <c r="H32" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17897,10 +17956,10 @@
         <v>78</v>
       </c>
       <c r="H33" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17926,10 +17985,10 @@
         <v>78</v>
       </c>
       <c r="H34" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I34" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17955,10 +18014,10 @@
         <v>78</v>
       </c>
       <c r="H35" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -17984,10 +18043,10 @@
         <v>78</v>
       </c>
       <c r="H36" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I36" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18013,10 +18072,10 @@
         <v>78</v>
       </c>
       <c r="H37" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I37" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18042,10 +18101,10 @@
         <v>78</v>
       </c>
       <c r="H38" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I38" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18071,10 +18130,10 @@
         <v>78</v>
       </c>
       <c r="H39" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I39" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18100,10 +18159,10 @@
         <v>78</v>
       </c>
       <c r="H40" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I40" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18129,10 +18188,10 @@
         <v>78</v>
       </c>
       <c r="H41" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I41" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18158,10 +18217,10 @@
         <v>78</v>
       </c>
       <c r="H42" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I42" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18187,10 +18246,10 @@
         <v>78</v>
       </c>
       <c r="H43" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I43" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18216,10 +18275,10 @@
         <v>78</v>
       </c>
       <c r="H44" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I44" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18245,10 +18304,10 @@
         <v>78</v>
       </c>
       <c r="H45" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18274,10 +18333,10 @@
         <v>78</v>
       </c>
       <c r="H46" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I46" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18303,10 +18362,10 @@
         <v>78</v>
       </c>
       <c r="H47" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I47" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18332,10 +18391,10 @@
         <v>78</v>
       </c>
       <c r="H48" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I48" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18361,10 +18420,10 @@
         <v>78</v>
       </c>
       <c r="H49" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I49" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18390,10 +18449,10 @@
         <v>78</v>
       </c>
       <c r="H50" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I50" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18419,10 +18478,10 @@
         <v>78</v>
       </c>
       <c r="H51" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I51" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18448,10 +18507,10 @@
         <v>78</v>
       </c>
       <c r="H52" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I52" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18477,10 +18536,10 @@
         <v>78</v>
       </c>
       <c r="H53" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I53" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18506,10 +18565,10 @@
         <v>78</v>
       </c>
       <c r="H54" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I54" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18535,10 +18594,10 @@
         <v>78</v>
       </c>
       <c r="H55" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I55" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18564,10 +18623,10 @@
         <v>78</v>
       </c>
       <c r="H56" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I56" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18593,10 +18652,10 @@
         <v>78</v>
       </c>
       <c r="H57" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I57" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -18622,10 +18681,10 @@
         <v>78</v>
       </c>
       <c r="H58" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I58" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18651,10 +18710,10 @@
         <v>78</v>
       </c>
       <c r="H59" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I59" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18680,10 +18739,10 @@
         <v>78</v>
       </c>
       <c r="H60" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I60" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18709,10 +18768,10 @@
         <v>78</v>
       </c>
       <c r="H61" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I61" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18738,10 +18797,10 @@
         <v>78</v>
       </c>
       <c r="H62" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I62" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18767,10 +18826,10 @@
         <v>78</v>
       </c>
       <c r="H63" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I63" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18796,10 +18855,10 @@
         <v>78</v>
       </c>
       <c r="H64" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I64" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18825,10 +18884,10 @@
         <v>78</v>
       </c>
       <c r="H65" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I65" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18854,10 +18913,10 @@
         <v>78</v>
       </c>
       <c r="H66" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I66" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18883,10 +18942,10 @@
         <v>78</v>
       </c>
       <c r="H67" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I67" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -18912,10 +18971,10 @@
         <v>78</v>
       </c>
       <c r="H68" s="32" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="I68" s="32" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
   </sheetData>
